--- a/LCS_USA_2019.xlsx
+++ b/LCS_USA_2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b37521\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60ABCF-3710-4C7C-93A8-B7DD97A2D5A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="PlayOffs" sheetId="3" r:id="rId3"/>
     <sheet name="Times" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="155">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -503,8 +504,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,10 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,16 +1538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>151</v>
       </c>
@@ -1560,7 +1558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="85" t="s">
         <v>20</v>
       </c>
@@ -1582,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
         <v>24</v>
       </c>
@@ -1593,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="85" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="85" t="s">
         <v>23</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="85" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="86" t="s">
         <v>22</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="85" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="85">
         <v>100</v>
       </c>
@@ -1736,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="85" t="s">
         <v>22</v>
       </c>
@@ -1747,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="86" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="83">
         <v>100</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="85" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="85" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="85" t="s">
         <v>25</v>
       </c>
@@ -1835,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="85" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="85" t="s">
         <v>25</v>
       </c>
@@ -1879,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="86">
         <v>100</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="83" t="s">
         <v>20</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="85" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="85" t="s">
         <v>21</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="85" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="85" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="85" t="s">
         <v>22</v>
       </c>
@@ -1956,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="85" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="85" t="s">
         <v>26</v>
       </c>
@@ -1989,7 +1987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="86" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
         <v>24</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="85" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="85" t="s">
         <v>23</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="85" t="s">
         <v>21</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="85" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="85" t="s">
         <v>25</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="85" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="85" t="s">
         <v>21</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="85" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="86" t="s">
         <v>18</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="83">
         <v>100</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="85" t="s">
         <v>20</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="85" t="s">
         <v>21</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="85" t="s">
         <v>19</v>
       </c>
@@ -2154,7 +2152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="85" t="s">
         <v>18</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="85" t="s">
         <v>23</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="85" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="85" t="s">
         <v>21</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="85" t="s">
         <v>18</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="86" t="s">
         <v>24</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="75" t="s">
         <v>25</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
         <v>26</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
         <v>24</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
         <v>18</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
         <v>26</v>
       </c>
@@ -2297,7 +2295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
         <v>20</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
         <v>21</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="80" t="s">
         <v>23</v>
       </c>
@@ -2330,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="75" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
         <v>18</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="78" t="s">
         <v>22</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="78" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
         <v>26</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="78" t="s">
         <v>25</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="78" t="s">
         <v>21</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="78" t="s">
         <v>26</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1">
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="80" t="s">
         <v>20</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="75" t="s">
         <v>25</v>
       </c>
@@ -2451,106 +2449,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="91" t="s">
+      <c r="B84" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="91" t="s">
+      <c r="B85" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="91">
+      <c r="B86" s="46">
         <v>100</v>
       </c>
       <c r="C86" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="B89" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="91" t="s">
+      <c r="B90" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="91">
+      <c r="B91" s="46">
         <v>100</v>
       </c>
       <c r="C91" s="79">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1">
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="80" t="s">
         <v>26</v>
       </c>
@@ -2561,684 +2559,718 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="90"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="46"/>
-      <c r="B94" s="46"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="46"/>
-      <c r="B96" s="46"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="46"/>
-      <c r="B97" s="46"/>
-    </row>
-    <row r="98" spans="1:2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="46"/>
       <c r="B98" s="46"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="46"/>
       <c r="B99" s="46"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="46"/>
       <c r="B100" s="46"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="46"/>
       <c r="B101" s="46"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="46"/>
       <c r="B102" s="46"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="46"/>
       <c r="B103" s="46"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="46"/>
       <c r="B104" s="46"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="46"/>
       <c r="B105" s="46"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="46"/>
       <c r="B106" s="46"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="46"/>
       <c r="B107" s="46"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="46"/>
       <c r="B108" s="46"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="46"/>
       <c r="B109" s="46"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="46"/>
       <c r="B110" s="46"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="46"/>
       <c r="B111" s="46"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="46"/>
       <c r="B112" s="46"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="46"/>
       <c r="B113" s="46"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="46"/>
       <c r="B114" s="46"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="46"/>
       <c r="B115" s="46"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="46"/>
       <c r="B116" s="46"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="46"/>
       <c r="B117" s="46"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="46"/>
       <c r="B118" s="46"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="46"/>
       <c r="B119" s="46"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="46"/>
       <c r="B120" s="46"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="46"/>
       <c r="B121" s="46"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="46"/>
       <c r="B122" s="46"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="46"/>
       <c r="B123" s="46"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="46"/>
       <c r="B124" s="46"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="46"/>
       <c r="B125" s="46"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="46"/>
       <c r="B126" s="46"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="46"/>
       <c r="B127" s="46"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="46"/>
       <c r="B128" s="46"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="46"/>
       <c r="B129" s="46"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="46"/>
       <c r="B130" s="46"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="46"/>
       <c r="B131" s="46"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="46"/>
       <c r="B132" s="46"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="46"/>
       <c r="B133" s="46"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="46"/>
       <c r="B134" s="46"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="46"/>
       <c r="B135" s="46"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="46"/>
       <c r="B136" s="46"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="46"/>
       <c r="B137" s="46"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="46"/>
       <c r="B138" s="46"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="46"/>
       <c r="B139" s="46"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="46"/>
       <c r="B140" s="46"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="46"/>
       <c r="B141" s="46"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="46"/>
       <c r="B142" s="46"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="46"/>
       <c r="B143" s="46"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="46"/>
       <c r="B144" s="46"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="46"/>
       <c r="B145" s="46"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="46"/>
       <c r="B146" s="46"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="46"/>
       <c r="B147" s="46"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="46"/>
       <c r="B148" s="46"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="46"/>
       <c r="B149" s="46"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="46"/>
       <c r="B150" s="46"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="46"/>
       <c r="B151" s="46"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="46"/>
       <c r="B152" s="46"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="46"/>
       <c r="B153" s="46"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="46"/>
       <c r="B154" s="46"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="46"/>
       <c r="B155" s="46"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
       <c r="B156" s="46"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="46"/>
       <c r="B157" s="46"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="46"/>
       <c r="B158" s="46"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="46"/>
       <c r="B159" s="46"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="46"/>
       <c r="B160" s="46"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="46"/>
       <c r="B161" s="46"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="46"/>
       <c r="B162" s="46"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="46"/>
       <c r="B163" s="46"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="46"/>
       <c r="B164" s="46"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="46"/>
       <c r="B165" s="46"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="46"/>
       <c r="B166" s="46"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="46"/>
       <c r="B167" s="46"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="46"/>
       <c r="B168" s="46"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="46"/>
       <c r="B169" s="46"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="46"/>
       <c r="B170" s="46"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="46"/>
       <c r="B171" s="46"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="46"/>
       <c r="B172" s="46"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="46"/>
       <c r="B173" s="46"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="46"/>
       <c r="B174" s="46"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="46"/>
       <c r="B175" s="46"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="46"/>
       <c r="B176" s="46"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="46"/>
       <c r="B177" s="46"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="46"/>
       <c r="B178" s="46"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="46"/>
       <c r="B179" s="46"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="46"/>
       <c r="B180" s="46"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="46"/>
       <c r="B181" s="46"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="46"/>
       <c r="B182" s="46"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="46"/>
       <c r="B183" s="46"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="46"/>
       <c r="B184" s="46"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="46"/>
       <c r="B185" s="46"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="46"/>
       <c r="B186" s="46"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="46"/>
       <c r="B187" s="46"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="46"/>
       <c r="B188" s="46"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="46"/>
       <c r="B189" s="46"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="46"/>
       <c r="B190" s="46"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="46"/>
       <c r="B191" s="46"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="46"/>
       <c r="B192" s="46"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="46"/>
       <c r="B193" s="46"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="46"/>
       <c r="B194" s="46"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="46"/>
       <c r="B195" s="46"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="46"/>
       <c r="B196" s="46"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="46"/>
       <c r="B197" s="46"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="46"/>
       <c r="B198" s="46"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="46"/>
       <c r="B199" s="46"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="46"/>
       <c r="B200" s="46"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="46"/>
       <c r="B201" s="46"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="46"/>
       <c r="B202" s="46"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="46"/>
       <c r="B203" s="46"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="46"/>
       <c r="B204" s="46"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="46"/>
       <c r="B205" s="46"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="46"/>
       <c r="B206" s="46"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="46"/>
       <c r="B207" s="46"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="46"/>
       <c r="B208" s="46"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="46"/>
       <c r="B209" s="46"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="46"/>
       <c r="B210" s="46"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="46"/>
       <c r="B211" s="46"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="46"/>
       <c r="B212" s="46"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="46"/>
       <c r="B213" s="46"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="46"/>
       <c r="B214" s="46"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="46"/>
       <c r="B215" s="46"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="46"/>
       <c r="B216" s="46"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="46"/>
       <c r="B217" s="46"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="46"/>
       <c r="B218" s="46"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="46"/>
       <c r="B219" s="46"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="46"/>
       <c r="B220" s="46"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="46"/>
       <c r="B221" s="46"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="46"/>
       <c r="B222" s="46"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="46"/>
       <c r="B223" s="46"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="46"/>
       <c r="B224" s="46"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="46"/>
       <c r="B225" s="46"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="46"/>
       <c r="B226" s="46"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="46"/>
       <c r="B227" s="46"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="46"/>
       <c r="B228" s="46"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="46"/>
       <c r="B229" s="46"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="46"/>
       <c r="B230" s="46"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="46"/>
       <c r="B231" s="46"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="46"/>
       <c r="B232" s="46"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="46"/>
       <c r="B233" s="46"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="46"/>
       <c r="B234" s="46"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="46"/>
       <c r="B235" s="46"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="46"/>
       <c r="B236" s="46"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="46"/>
       <c r="B237" s="46"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="46"/>
       <c r="B238" s="46"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="46"/>
       <c r="B239" s="46"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="46"/>
       <c r="B240" s="46"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="46"/>
       <c r="B241" s="46"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="46"/>
       <c r="B242" s="46"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="46"/>
       <c r="B243" s="46"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="46"/>
       <c r="B244" s="46"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="46"/>
       <c r="B245" s="46"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="46"/>
       <c r="B246" s="46"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="46"/>
       <c r="B247" s="46"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="46"/>
       <c r="B248" s="46"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="46"/>
       <c r="B249" s="46"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="46"/>
       <c r="B250" s="46"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="46"/>
       <c r="B251" s="46"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="46"/>
       <c r="B252" s="46"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="46"/>
       <c r="B253" s="46"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="46"/>
       <c r="B254" s="46"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="46"/>
       <c r="B255" s="46"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="46"/>
       <c r="B256" s="46"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="46"/>
       <c r="B257" s="46"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="72"/>
       <c r="B258" s="72"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="72"/>
       <c r="B259" s="72"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="72"/>
       <c r="B260" s="72"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="72"/>
       <c r="B261" s="72"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="72"/>
       <c r="B262" s="72"/>
     </row>
@@ -3252,19 +3284,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1">
+    <row r="1" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3416,7 +3448,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="2" spans="1:60" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="49"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
@@ -3518,7 +3550,7 @@
       <c r="BB2" s="48"/>
       <c r="BH2" s="48"/>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
@@ -3630,7 +3662,7 @@
       </c>
       <c r="AX3" s="70"/>
     </row>
-    <row r="4" spans="1:60" ht="15.75" thickBot="1">
+    <row r="4" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
@@ -3762,7 +3794,7 @@
       </c>
       <c r="AX4" s="71"/>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="39"/>
@@ -3844,7 +3876,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="C6" s="37"/>
       <c r="D6" s="58"/>
@@ -3916,7 +3948,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="C7" s="37"/>
       <c r="D7" s="58"/>
@@ -3988,7 +4020,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15.75" thickBot="1">
+    <row r="8" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="C8" s="37"/>
       <c r="D8" s="58"/>
@@ -4063,7 +4095,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="C9" s="37"/>
       <c r="D9" s="58"/>
@@ -4134,7 +4166,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="C10" s="37"/>
       <c r="D10" s="58"/>
@@ -4205,7 +4237,7 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="C11" s="37"/>
       <c r="D11" s="58"/>
@@ -4276,7 +4308,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="C12" s="37"/>
       <c r="D12" s="58"/>
@@ -4347,7 +4379,7 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="C13" s="37"/>
       <c r="D13" s="58"/>
@@ -4418,7 +4450,7 @@
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
     </row>
-    <row r="14" spans="1:60" ht="15.75" thickBot="1">
+    <row r="14" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="41"/>
@@ -4496,39 +4528,39 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
@@ -4539,19 +4571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>101</v>
       </c>
@@ -4598,7 +4630,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.5" thickBot="1">
+    <row r="2" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="66" t="s">
         <v>98</v>
@@ -4636,7 +4668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +4714,7 @@
       </c>
       <c r="T3" s="70"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
@@ -4736,7 +4768,7 @@
       </c>
       <c r="T4" s="71"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="39"/>
@@ -4770,7 +4802,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
@@ -4800,7 +4832,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
@@ -4830,7 +4862,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
@@ -4860,7 +4892,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
@@ -4890,7 +4922,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
@@ -4920,7 +4952,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
@@ -4950,7 +4982,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="41"/>
@@ -4982,7 +5014,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="F13" s="35"/>
@@ -5002,21 +5034,21 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="R14" s="46"/>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
     </row>
-    <row r="17" spans="18:19">
+    <row r="17" spans="18:19" x14ac:dyDescent="0.3">
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
     </row>
@@ -5027,20 +5059,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -5054,7 +5086,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
@@ -5121,7 +5153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="11" t="s">
         <v>41</v>
@@ -5157,7 +5189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -5195,7 +5227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>64</v>
@@ -5231,7 +5263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>75</v>
       </c>
@@ -5269,7 +5301,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>87</v>

--- a/LCS_USA_2019.xlsx
+++ b/LCS_USA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60ABCF-3710-4C7C-93A8-B7DD97A2D5A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCCA6-085A-4E0E-A774-A313E94ADB70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="155">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1067,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,7 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,7 +2565,7 @@
       <c r="B93" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="90">
+      <c r="C93" s="79">
         <v>10</v>
       </c>
     </row>
@@ -2577,7 +2576,7 @@
       <c r="B94" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="90">
+      <c r="C94" s="79">
         <v>10</v>
       </c>
     </row>
@@ -2588,7 +2587,7 @@
       <c r="B95" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="90">
+      <c r="C95" s="79">
         <v>10</v>
       </c>
     </row>
@@ -2599,7 +2598,7 @@
       <c r="B96" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="90">
+      <c r="C96" s="79">
         <v>10</v>
       </c>
     </row>
@@ -2610,25 +2609,53 @@
       <c r="B97" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="90">
+      <c r="C97" s="79">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
+      <c r="A98" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="79">
+        <v>10</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="46"/>
-      <c r="B99" s="46"/>
+      <c r="A99" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="79">
+        <v>10</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
+      <c r="A100" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="79">
+        <v>10</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
+      <c r="A101" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="79">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="46"/>

--- a/LCS_USA_2019.xlsx
+++ b/LCS_USA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCCA6-085A-4E0E-A774-A313E94ADB70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048116-A6B3-4005-A453-73B4AA1016A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,7 +2566,7 @@
         <v>25</v>
       </c>
       <c r="C93" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2577,7 +2577,7 @@
         <v>25</v>
       </c>
       <c r="C94" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2588,7 +2588,7 @@
         <v>25</v>
       </c>
       <c r="C95" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2599,7 +2599,7 @@
         <v>26</v>
       </c>
       <c r="C96" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>26</v>
       </c>
       <c r="C97" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2632,7 +2632,7 @@
         <v>22</v>
       </c>
       <c r="C99" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2643,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2654,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="C101" s="79">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">

--- a/LCS_USA_2019.xlsx
+++ b/LCS_USA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048116-A6B3-4005-A453-73B4AA1016A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CC21E-754D-4C31-A22D-E42571069F64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="155">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,24 +2658,59 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
+      <c r="A102" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
+      <c r="A103" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
+      <c r="A104" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
+      <c r="A105" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
+      <c r="A106" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="46"/>

--- a/LCS_USA_2019.xlsx
+++ b/LCS_USA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CC21E-754D-4C31-A22D-E42571069F64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D6F5C-BAD6-4814-AAD1-6831BEAB32B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="155">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2713,16 +2713,37 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
+      <c r="A107" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
+      <c r="A108" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
+      <c r="A109" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="46"/>

--- a/LCS_USA_2019.xlsx
+++ b/LCS_USA_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D6F5C-BAD6-4814-AAD1-6831BEAB32B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD03A6AA-D379-4C62-8CC4-CFE43CC5D10C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="155">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1067,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,6 +1252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,21 +2562,21 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="79">
+      <c r="C93" s="77">
         <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="90" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="79">
@@ -2581,10 +2584,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="90" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="79">
@@ -2592,10 +2595,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C96" s="79">
@@ -2603,10 +2606,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="79">
@@ -2614,10 +2617,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="90" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="79">
@@ -2625,10 +2628,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="90" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="79">
@@ -2636,10 +2639,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="90" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="79">
@@ -2647,10 +2650,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="79">
@@ -2658,10 +2661,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="90" t="s">
         <v>21</v>
       </c>
       <c r="C102" s="79">
@@ -2669,10 +2672,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="90" t="s">
         <v>21</v>
       </c>
       <c r="C103" s="79">
@@ -2680,10 +2683,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="90" t="s">
         <v>21</v>
       </c>
       <c r="C104" s="79">
@@ -2691,10 +2694,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="46" t="s">
+      <c r="A105" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="79">
@@ -2702,10 +2705,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C106" s="79">
@@ -2713,10 +2716,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C107" s="79">
@@ -2724,10 +2727,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C108" s="79">
@@ -2735,10 +2738,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C109" s="79">
@@ -2746,78 +2749,113 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
+      <c r="A110" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
+      <c r="A111" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="79">
+        <v>-1</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="46"/>
       <c r="B115" s="46"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="46"/>
       <c r="B116" s="46"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="46"/>
       <c r="B117" s="46"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="46"/>
       <c r="B118" s="46"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="46"/>
       <c r="B119" s="46"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="46"/>
       <c r="B120" s="46"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="46"/>
       <c r="B121" s="46"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="46"/>
       <c r="B122" s="46"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="46"/>
       <c r="B123" s="46"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="46"/>
       <c r="B124" s="46"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="46"/>
       <c r="B125" s="46"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="46"/>
       <c r="B126" s="46"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="46"/>
       <c r="B127" s="46"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="46"/>
       <c r="B128" s="46"/>
     </row>
